--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cdh1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H2">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I2">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J2">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08032284433198</v>
+        <v>1.57413</v>
       </c>
       <c r="N2">
-        <v>1.08032284433198</v>
+        <v>4.72239</v>
       </c>
       <c r="O2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q2">
-        <v>0.4136702917537966</v>
+        <v>0.6607662535799999</v>
       </c>
       <c r="R2">
-        <v>0.4136702917537966</v>
+        <v>5.946896282219999</v>
       </c>
       <c r="S2">
-        <v>0.00778674538542388</v>
+        <v>0.008310301566006949</v>
       </c>
       <c r="T2">
-        <v>0.00778674538542388</v>
+        <v>0.008310301566006949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H3">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I3">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J3">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4982525109528</v>
+        <v>62.503947</v>
       </c>
       <c r="N3">
-        <v>62.4982525109528</v>
+        <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.8293959923635609</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P3">
-        <v>0.8293959923635609</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q3">
-        <v>23.93142983687897</v>
+        <v>26.23703181640199</v>
       </c>
       <c r="R3">
-        <v>23.93142983687897</v>
+        <v>236.133286347618</v>
       </c>
       <c r="S3">
-        <v>0.4504745797888262</v>
+        <v>0.3299769705397364</v>
       </c>
       <c r="T3">
-        <v>0.4504745797888262</v>
+        <v>0.3299769705397365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H4">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I4">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J4">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.7753606251016</v>
+        <v>0.182903</v>
       </c>
       <c r="N4">
-        <v>11.7753606251016</v>
+        <v>0.548709</v>
       </c>
       <c r="O4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q4">
-        <v>4.508945534984048</v>
+        <v>0.076776460698</v>
       </c>
       <c r="R4">
-        <v>4.508945534984048</v>
+        <v>0.6909881462819999</v>
       </c>
       <c r="S4">
-        <v>0.08487438314415145</v>
+        <v>0.0009655994659445973</v>
       </c>
       <c r="T4">
-        <v>0.08487438314415145</v>
+        <v>0.0009655994659445973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.322091772758332</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H5">
-        <v>0.322091772758332</v>
+        <v>1.259298</v>
       </c>
       <c r="I5">
-        <v>0.4568642916815985</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J5">
-        <v>0.4568642916815985</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.08032284433198</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N5">
-        <v>1.08032284433198</v>
+        <v>0.281423</v>
       </c>
       <c r="O5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q5">
-        <v>0.3479631000822109</v>
+        <v>0.03937726900599999</v>
       </c>
       <c r="R5">
-        <v>0.3479631000822109</v>
+        <v>0.3543954210539999</v>
       </c>
       <c r="S5">
-        <v>0.006549902465501564</v>
+        <v>0.0004952386392505434</v>
       </c>
       <c r="T5">
-        <v>0.006549902465501564</v>
+        <v>0.0004952386392505434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.322091772758332</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H6">
-        <v>0.322091772758332</v>
+        <v>1.259298</v>
       </c>
       <c r="I6">
-        <v>0.4568642916815985</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J6">
-        <v>0.4568642916815985</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4982525109528</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N6">
-        <v>62.4982525109528</v>
+        <v>40.155898</v>
       </c>
       <c r="O6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q6">
-        <v>20.13017294555066</v>
+        <v>5.618693559955999</v>
       </c>
       <c r="R6">
-        <v>20.13017294555066</v>
+        <v>50.56824203960399</v>
       </c>
       <c r="S6">
-        <v>0.3789214125747347</v>
+        <v>0.07066498574531441</v>
       </c>
       <c r="T6">
-        <v>0.3789214125747347</v>
+        <v>0.07066498574531441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.776571</v>
+      </c>
+      <c r="I7">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J7">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.57413</v>
+      </c>
+      <c r="N7">
+        <v>4.72239</v>
+      </c>
+      <c r="O7">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P7">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q7">
+        <v>0.9321845694099999</v>
+      </c>
+      <c r="R7">
+        <v>8.389661124689999</v>
+      </c>
+      <c r="S7">
+        <v>0.01172386580731688</v>
+      </c>
+      <c r="T7">
+        <v>0.01172386580731688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.776571</v>
+      </c>
+      <c r="I8">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J8">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>62.503947</v>
+      </c>
+      <c r="N8">
+        <v>187.511841</v>
+      </c>
+      <c r="O8">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P8">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q8">
+        <v>37.014233208579</v>
+      </c>
+      <c r="R8">
+        <v>333.128098877211</v>
+      </c>
+      <c r="S8">
+        <v>0.4655192945027707</v>
+      </c>
+      <c r="T8">
+        <v>0.4655192945027707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.776571</v>
+      </c>
+      <c r="I9">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J9">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.182903</v>
+      </c>
+      <c r="N9">
+        <v>0.548709</v>
+      </c>
+      <c r="O9">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P9">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q9">
+        <v>0.1083133885376667</v>
+      </c>
+      <c r="R9">
+        <v>0.974820496839</v>
+      </c>
+      <c r="S9">
+        <v>0.001362231980685</v>
+      </c>
+      <c r="T9">
+        <v>0.001362231980685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.776571</v>
+      </c>
+      <c r="I10">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J10">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.281423</v>
+      </c>
+      <c r="O10">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P10">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q10">
+        <v>0.05555199339255554</v>
+      </c>
+      <c r="R10">
+        <v>0.4999679405329999</v>
+      </c>
+      <c r="S10">
+        <v>0.0006986643388395575</v>
+      </c>
+      <c r="T10">
+        <v>0.0006986643388395575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.776571</v>
+      </c>
+      <c r="I11">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J11">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N11">
+        <v>40.155898</v>
+      </c>
+      <c r="O11">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P11">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q11">
+        <v>7.92664487397311</v>
+      </c>
+      <c r="R11">
+        <v>71.339803865758</v>
+      </c>
+      <c r="S11">
+        <v>0.09969154591728008</v>
+      </c>
+      <c r="T11">
+        <v>0.09969154591728008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.032498</v>
+      </c>
+      <c r="I12">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J12">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.57413</v>
+      </c>
+      <c r="N12">
+        <v>4.72239</v>
+      </c>
+      <c r="O12">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P12">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q12">
+        <v>0.01705202558</v>
+      </c>
+      <c r="R12">
+        <v>0.15346823022</v>
+      </c>
+      <c r="S12">
+        <v>0.0002144593101014167</v>
+      </c>
+      <c r="T12">
+        <v>0.0002144593101014167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.322091772758332</v>
-      </c>
-      <c r="H7">
-        <v>0.322091772758332</v>
-      </c>
-      <c r="I7">
-        <v>0.4568642916815985</v>
-      </c>
-      <c r="J7">
-        <v>0.4568642916815985</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>11.7753606251016</v>
-      </c>
-      <c r="N7">
-        <v>11.7753606251016</v>
-      </c>
-      <c r="O7">
-        <v>0.1562673597855136</v>
-      </c>
-      <c r="P7">
-        <v>0.1562673597855136</v>
-      </c>
-      <c r="Q7">
-        <v>3.792746778607635</v>
-      </c>
-      <c r="R7">
-        <v>3.792746778607635</v>
-      </c>
-      <c r="S7">
-        <v>0.0713929766413622</v>
-      </c>
-      <c r="T7">
-        <v>0.0713929766413622</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.032498</v>
+      </c>
+      <c r="I13">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J13">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>62.503947</v>
+      </c>
+      <c r="N13">
+        <v>187.511841</v>
+      </c>
+      <c r="O13">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P13">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q13">
+        <v>0.677084423202</v>
+      </c>
+      <c r="R13">
+        <v>6.093759808818</v>
+      </c>
+      <c r="S13">
+        <v>0.00851553134254192</v>
+      </c>
+      <c r="T13">
+        <v>0.008515531342541922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.032498</v>
+      </c>
+      <c r="I14">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J14">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.182903</v>
+      </c>
+      <c r="N14">
+        <v>0.548709</v>
+      </c>
+      <c r="O14">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P14">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q14">
+        <v>0.001981327231333333</v>
+      </c>
+      <c r="R14">
+        <v>0.017831945082</v>
+      </c>
+      <c r="S14">
+        <v>2.491868600146075E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.491868600146075E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.032498</v>
+      </c>
+      <c r="I15">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J15">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.281423</v>
+      </c>
+      <c r="O15">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P15">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q15">
+        <v>0.001016187183777778</v>
+      </c>
+      <c r="R15">
+        <v>0.009145684653999999</v>
+      </c>
+      <c r="S15">
+        <v>1.278034690626378E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.278034690626378E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.032498</v>
+      </c>
+      <c r="I16">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J16">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N16">
+        <v>40.155898</v>
+      </c>
+      <c r="O16">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P16">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q16">
+        <v>0.1449984859115556</v>
+      </c>
+      <c r="R16">
+        <v>1.304986373204</v>
+      </c>
+      <c r="S16">
+        <v>0.00182361181130378</v>
+      </c>
+      <c r="T16">
+        <v>0.00182361181130378</v>
       </c>
     </row>
   </sheetData>
